--- a/data/trans_orig/P16B08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17C8574A-0B91-4B44-B3BE-4F67CAE52392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1360C4-17DA-4AF8-A33F-AA9E14FF5959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{34E8F9F0-FA10-475D-B2C8-AC1EB39145B3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBFACF7B-38BE-468B-86E4-19119115D8BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="241">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>84,12%</t>
   </si>
   <si>
-    <t>39,03%</t>
+    <t>39,31%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>90,39%</t>
   </si>
   <si>
-    <t>58,12%</t>
+    <t>58,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>60,97%</t>
+    <t>60,69%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>9,61%</t>
   </si>
   <si>
-    <t>41,88%</t>
+    <t>41,7%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -127,13 +127,13 @@
     <t>97,21%</t>
   </si>
   <si>
-    <t>88,2%</t>
+    <t>85,71%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>89,29%</t>
+    <t>89,13%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -142,13 +142,13 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>11,8%</t>
+    <t>14,29%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>10,71%</t>
+    <t>10,87%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -217,7 +217,7 @@
     <t>81,36%</t>
   </si>
   <si>
-    <t>35,72%</t>
+    <t>28,78%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -226,13 +226,13 @@
     <t>93,67%</t>
   </si>
   <si>
-    <t>71,63%</t>
+    <t>71,69%</t>
   </si>
   <si>
     <t>18,64%</t>
   </si>
   <si>
-    <t>64,28%</t>
+    <t>71,22%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -241,7 +241,7 @@
     <t>6,33%</t>
   </si>
   <si>
-    <t>28,37%</t>
+    <t>28,31%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -250,97 +250,97 @@
     <t>86,1%</t>
   </si>
   <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>83,18%</t>
+    <t>85,36%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>16,82%</t>
+    <t>14,64%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,19%</t>
+    <t>95,41%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>4,59%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -373,25 +373,25 @@
     <t>95,63%</t>
   </si>
   <si>
-    <t>82,31%</t>
+    <t>77,51%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>85,89%</t>
+    <t>83,95%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>17,69%</t>
+    <t>22,49%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>14,11%</t>
+    <t>16,05%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -400,19 +400,19 @@
     <t>88,87%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -421,19 +421,19 @@
     <t>11,13%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -445,25 +445,25 @@
     <t>95,65%</t>
   </si>
   <si>
-    <t>74,35%</t>
+    <t>78,63%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>86,4%</t>
+    <t>84,11%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>25,65%</t>
+    <t>21,37%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>13,6%</t>
+    <t>15,89%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -484,19 +484,19 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -505,19 +505,19 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2015 (Tasa respuesta: 4,17%)</t>
@@ -526,67 +526,67 @@
     <t>82,71%</t>
   </si>
   <si>
-    <t>47,59%</t>
+    <t>53,18%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>43,08%</t>
+    <t>45,37%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>52,41%</t>
+    <t>46,82%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>56,92%</t>
+    <t>54,63%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>81,46%</t>
+    <t>82,28%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>85,69%</t>
+    <t>85,37%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>18,54%</t>
+    <t>17,72%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>14,31%</t>
+    <t>14,63%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -604,25 +604,25 @@
     <t>89,88%</t>
   </si>
   <si>
-    <t>58,86%</t>
+    <t>58,58%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>80,62%</t>
+    <t>81,02%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>41,14%</t>
+    <t>41,42%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>19,38%</t>
+    <t>18,98%</t>
   </si>
   <si>
     <t>78,14%</t>
@@ -634,7 +634,7 @@
     <t>93,32%</t>
   </si>
   <si>
-    <t>69,69%</t>
+    <t>67,05%</t>
   </si>
   <si>
     <t>21,86%</t>
@@ -646,7 +646,7 @@
     <t>6,68%</t>
   </si>
   <si>
-    <t>30,31%</t>
+    <t>32,95%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -658,31 +658,31 @@
     <t>97,47%</t>
   </si>
   <si>
-    <t>86,81%</t>
+    <t>86,75%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>90,51%</t>
+    <t>89,79%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>13,19%</t>
+    <t>13,25%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>9,49%</t>
+    <t>10,21%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>73,72%</t>
+    <t>71,83%</t>
   </si>
   <si>
     <t>95,22%</t>
@@ -691,13 +691,13 @@
     <t>96,89%</t>
   </si>
   <si>
-    <t>90,22%</t>
+    <t>88,94%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>26,28%</t>
+    <t>28,17%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -706,55 +706,61 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>9,78%</t>
+    <t>11,06%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>92,56%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>7,44%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7CCB05-7D58-4803-951E-01FA83A886B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09A63A1-C57C-4E97-A9E8-F0486404115F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2697,7 +2703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FBEDE8-EC85-4BA5-A9D1-6C0A99BF3310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9CB786-ED72-45B5-BBCE-1199AF96AB51}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4055,7 +4061,7 @@
         <v>176</v>
       </c>
       <c r="I28" s="7">
-        <v>187960</v>
+        <v>187959</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>147</v>
@@ -4157,7 +4163,7 @@
         <v>182</v>
       </c>
       <c r="I30" s="7">
-        <v>194126</v>
+        <v>194125</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -4210,7 +4216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6402412-04B3-4CF2-B77B-B3DB5B4D7EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBCCF12-A4E3-4587-912B-E26BD3D171DF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5595,7 +5601,7 @@
         <v>227</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="M28" s="7">
         <v>263</v>
@@ -5604,13 +5610,13 @@
         <v>279349</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5631,13 @@
         <v>6601</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5640,13 +5646,13 @@
         <v>5826</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -5655,13 +5661,13 @@
         <v>12427</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B1360C4-17DA-4AF8-A33F-AA9E14FF5959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83C6D16C-25BA-44B1-8892-72360D2778BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBFACF7B-38BE-468B-86E4-19119115D8BE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{552E222B-40FD-4068-84EB-E97603FFE6FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +76,7 @@
     <t>84,12%</t>
   </si>
   <si>
-    <t>39,31%</t>
+    <t>31,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>90,39%</t>
   </si>
   <si>
-    <t>58,3%</t>
+    <t>58,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>60,69%</t>
+    <t>68,35%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>9,61%</t>
   </si>
   <si>
-    <t>41,7%</t>
+    <t>41,54%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -127,13 +127,13 @@
     <t>97,21%</t>
   </si>
   <si>
-    <t>85,71%</t>
+    <t>86,63%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>89,13%</t>
+    <t>89,15%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -142,13 +142,13 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>14,29%</t>
+    <t>13,37%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>10,87%</t>
+    <t>10,85%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -217,7 +217,7 @@
     <t>81,36%</t>
   </si>
   <si>
-    <t>28,78%</t>
+    <t>38,43%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -226,13 +226,13 @@
     <t>93,67%</t>
   </si>
   <si>
-    <t>71,69%</t>
+    <t>69,74%</t>
   </si>
   <si>
     <t>18,64%</t>
   </si>
   <si>
-    <t>71,22%</t>
+    <t>61,57%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -241,7 +241,7 @@
     <t>6,33%</t>
   </si>
   <si>
-    <t>28,31%</t>
+    <t>30,26%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -250,97 +250,97 @@
     <t>86,1%</t>
   </si>
   <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>85,36%</t>
+    <t>84,74%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>14,64%</t>
+    <t>15,26%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,41%</t>
+    <t>95,18%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,59%</t>
+    <t>4,82%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -373,25 +373,25 @@
     <t>95,63%</t>
   </si>
   <si>
-    <t>77,51%</t>
+    <t>82,12%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>83,95%</t>
+    <t>82,65%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>22,49%</t>
+    <t>17,88%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>16,05%</t>
+    <t>17,35%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -400,19 +400,19 @@
     <t>88,87%</t>
   </si>
   <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -421,19 +421,19 @@
     <t>11,13%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -445,25 +445,25 @@
     <t>95,65%</t>
   </si>
   <si>
-    <t>78,63%</t>
+    <t>79,0%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>84,11%</t>
+    <t>86,66%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>21,37%</t>
+    <t>21,0%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>15,89%</t>
+    <t>13,34%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -484,109 +484,109 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para la alergia recetados en 2016 (Tasa respuesta: 4,17%)</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>Porcentajes de medicamentos para la alergia recetados en 2015 (Tasa respuesta: 4,17%)</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>40,71%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>82,28%</t>
+    <t>82,55%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>85,37%</t>
+    <t>85,44%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>17,72%</t>
+    <t>17,45%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>14,63%</t>
+    <t>14,56%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -604,49 +604,49 @@
     <t>89,88%</t>
   </si>
   <si>
-    <t>58,58%</t>
+    <t>56,94%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>81,02%</t>
+    <t>79,67%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>41,42%</t>
+    <t>43,06%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>18,98%</t>
+    <t>20,33%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>18,15%</t>
+    <t>19,12%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>67,05%</t>
+    <t>72,93%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>81,85%</t>
+    <t>80,88%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>32,95%</t>
+    <t>27,07%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -658,31 +658,31 @@
     <t>97,47%</t>
   </si>
   <si>
-    <t>86,75%</t>
+    <t>86,98%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>89,79%</t>
+    <t>91,34%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>13,25%</t>
+    <t>13,02%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>10,21%</t>
+    <t>8,66%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>71,83%</t>
+    <t>74,64%</t>
   </si>
   <si>
     <t>95,22%</t>
@@ -691,13 +691,13 @@
     <t>96,89%</t>
   </si>
   <si>
-    <t>88,94%</t>
+    <t>88,91%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>28,17%</t>
+    <t>25,36%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -706,61 +706,61 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>11,06%</t>
+    <t>11,09%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09A63A1-C57C-4E97-A9E8-F0486404115F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A024E268-BCCB-4A2C-BD04-E9DC62486F51}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2703,7 +2703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9CB786-ED72-45B5-BBCE-1199AF96AB51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1759FE-A9AF-4E94-A8DB-D5251184F6E0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4061,7 +4061,7 @@
         <v>176</v>
       </c>
       <c r="I28" s="7">
-        <v>187959</v>
+        <v>187960</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>147</v>
@@ -4163,7 +4163,7 @@
         <v>182</v>
       </c>
       <c r="I30" s="7">
-        <v>194125</v>
+        <v>194126</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -4216,7 +4216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBCCF12-A4E3-4587-912B-E26BD3D171DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23B9824-4116-486A-820C-C2E767F2F55F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83C6D16C-25BA-44B1-8892-72360D2778BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70684ACB-7147-45BD-96B8-1EA605FA4F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{552E222B-40FD-4068-84EB-E97603FFE6FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E6BAAEA-BB7E-49F1-8D2A-3C398E2DF1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="239">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>84,12%</t>
   </si>
   <si>
-    <t>31,65%</t>
+    <t>39,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>90,39%</t>
   </si>
   <si>
-    <t>58,46%</t>
+    <t>58,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>68,35%</t>
+    <t>60,97%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>9,61%</t>
   </si>
   <si>
-    <t>41,54%</t>
+    <t>41,88%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -127,13 +127,13 @@
     <t>97,21%</t>
   </si>
   <si>
-    <t>86,63%</t>
+    <t>88,2%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>89,15%</t>
+    <t>89,29%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -142,13 +142,13 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>13,37%</t>
+    <t>11,8%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>10,85%</t>
+    <t>10,71%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -217,7 +217,7 @@
     <t>81,36%</t>
   </si>
   <si>
-    <t>38,43%</t>
+    <t>35,72%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -226,13 +226,13 @@
     <t>93,67%</t>
   </si>
   <si>
-    <t>69,74%</t>
+    <t>71,63%</t>
   </si>
   <si>
     <t>18,64%</t>
   </si>
   <si>
-    <t>61,57%</t>
+    <t>64,28%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -241,7 +241,7 @@
     <t>6,33%</t>
   </si>
   <si>
-    <t>30,26%</t>
+    <t>28,37%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -250,97 +250,97 @@
     <t>86,1%</t>
   </si>
   <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>84,74%</t>
+    <t>83,18%</t>
   </si>
   <si>
     <t>91,49%</t>
   </si>
   <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>15,26%</t>
+    <t>16,82%</t>
   </si>
   <si>
     <t>8,51%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>95,19%</t>
   </si>
   <si>
     <t>95,91%</t>
   </si>
   <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,81%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -373,25 +373,25 @@
     <t>95,63%</t>
   </si>
   <si>
-    <t>82,12%</t>
+    <t>82,31%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>82,65%</t>
+    <t>85,89%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>17,88%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>17,35%</t>
+    <t>14,11%</t>
   </si>
   <si>
     <t>88,85%</t>
@@ -400,16 +400,16 @@
     <t>88,87%</t>
   </si>
   <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>82,67%</t>
+    <t>83,05%</t>
   </si>
   <si>
     <t>98,11%</t>
@@ -421,10 +421,10 @@
     <t>11,13%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>7,57%</t>
@@ -433,7 +433,7 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>17,33%</t>
+    <t>16,95%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -445,25 +445,25 @@
     <t>95,65%</t>
   </si>
   <si>
-    <t>79,0%</t>
+    <t>74,35%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>86,66%</t>
+    <t>86,4%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>21,0%</t>
+    <t>25,65%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>13,34%</t>
+    <t>13,6%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -484,19 +484,19 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -505,19 +505,19 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2016 (Tasa respuesta: 4,17%)</t>
@@ -526,67 +526,67 @@
     <t>82,71%</t>
   </si>
   <si>
-    <t>48,06%</t>
+    <t>47,59%</t>
   </si>
   <si>
     <t>79,07%</t>
   </si>
   <si>
-    <t>42,47%</t>
+    <t>43,08%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>51,94%</t>
+    <t>52,41%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>57,53%</t>
+    <t>56,92%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>82,55%</t>
+    <t>81,46%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>85,44%</t>
+    <t>85,69%</t>
   </si>
   <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>17,45%</t>
+    <t>18,54%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>14,56%</t>
+    <t>14,31%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -604,49 +604,49 @@
     <t>89,88%</t>
   </si>
   <si>
-    <t>56,94%</t>
+    <t>58,86%</t>
   </si>
   <si>
     <t>96,05%</t>
   </si>
   <si>
-    <t>79,67%</t>
+    <t>80,62%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>43,06%</t>
+    <t>41,14%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>20,33%</t>
+    <t>19,38%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>19,12%</t>
+    <t>18,15%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>72,93%</t>
+    <t>69,69%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>80,88%</t>
+    <t>81,85%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>27,07%</t>
+    <t>30,31%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -658,31 +658,31 @@
     <t>97,47%</t>
   </si>
   <si>
-    <t>86,98%</t>
+    <t>86,81%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>91,34%</t>
+    <t>90,51%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>13,02%</t>
+    <t>13,19%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>9,49%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>74,64%</t>
+    <t>73,72%</t>
   </si>
   <si>
     <t>95,22%</t>
@@ -691,13 +691,13 @@
     <t>96,89%</t>
   </si>
   <si>
-    <t>88,91%</t>
+    <t>90,22%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>25,36%</t>
+    <t>26,28%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -706,61 +706,55 @@
     <t>3,11%</t>
   </si>
   <si>
-    <t>11,09%</t>
+    <t>9,78%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>96,93%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>92,56%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>7,44%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A024E268-BCCB-4A2C-BD04-E9DC62486F51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE03CF5-BD6C-4CB3-A390-0B102F0533A8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2703,7 +2697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1759FE-A9AF-4E94-A8DB-D5251184F6E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D25CE0-7435-40F2-BF5B-B2A844A1DD10}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4216,7 +4210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23B9824-4116-486A-820C-C2E767F2F55F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC6A31-5D75-4E1B-9BF1-0FA76BBB3726}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5601,7 +5595,7 @@
         <v>227</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>263</v>
@@ -5610,13 +5604,13 @@
         <v>279349</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5625,13 @@
         <v>6601</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5646,13 +5640,13 @@
         <v>5826</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -5661,13 +5655,13 @@
         <v>12427</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70684ACB-7147-45BD-96B8-1EA605FA4F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{662EE797-9347-48DC-ADF6-4E8194E8378D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E6BAAEA-BB7E-49F1-8D2A-3C398E2DF1DA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EFD06593-2A7F-499D-B293-DF3B457A6CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="240">
   <si>
     <t>Porcentajes de medicamentos para la alergia recetados en 2007 (Tasa respuesta: 3,07%)</t>
   </si>
@@ -349,7 +349,28 @@
     <t>Porcentajes de medicamentos para la alergia recetados en 2012 (Tasa respuesta: 4,4%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -394,46 +415,28 @@
     <t>14,11%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -1166,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE03CF5-BD6C-4CB3-A390-0B102F0533A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF7FC72-4A59-49A7-89C9-88A0D92561E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2697,7 +2700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D25CE0-7435-40F2-BF5B-B2A844A1DD10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDE9E39-F168-49B9-92EF-EE4E09BBD621}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2815,43 +2818,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9166</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17380</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>103</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="N4" s="7">
+        <v>26546</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,41 +2871,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1964</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1964</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,43 +2920,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9166</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>19344</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="N6" s="7">
+        <v>28510</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,7 +2982,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2976,7 +2997,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2991,7 +3012,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -3015,7 +3036,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3030,7 +3051,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3045,7 +3066,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,10 +3149,10 @@
         <v>23298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3143,10 +3164,10 @@
         <v>30119</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3179,13 +3200,13 @@
         <v>1065</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3194,13 +3215,13 @@
         <v>1065</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,49 +3283,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>16518</v>
+        <v>7352</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>31286</v>
+        <v>13906</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>47804</v>
+        <v>21258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,37 +3346,37 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>3918</v>
+        <v>1954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>3918</v>
+        <v>1954</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,25 +3385,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7352</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
         <v>16</v>
       </c>
-      <c r="D15" s="7">
-        <v>16518</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="7">
-        <v>34</v>
-      </c>
       <c r="I15" s="7">
-        <v>35204</v>
+        <v>15860</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3394,10 +3415,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N15" s="7">
-        <v>51722</v>
+        <v>23212</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -3456,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3510,7 +3531,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,10 +3769,10 @@
         <v>26028</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -3763,10 +3784,10 @@
         <v>36315</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -3799,13 +3820,13 @@
         <v>1184</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3814,13 +3835,13 @@
         <v>1184</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,7 +3912,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3906,7 +3927,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -3921,7 +3942,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -3945,7 +3966,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3960,7 +3981,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3975,7 +3996,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,7 +4067,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>15</v>
@@ -4055,16 +4076,16 @@
         <v>176</v>
       </c>
       <c r="I28" s="7">
-        <v>187960</v>
+        <v>187959</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>280</v>
@@ -4073,13 +4094,13 @@
         <v>302703</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,7 +4121,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -4109,13 +4130,13 @@
         <v>6166</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -4124,13 +4145,13 @@
         <v>6166</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,7 +4178,7 @@
         <v>182</v>
       </c>
       <c r="I30" s="7">
-        <v>194126</v>
+        <v>194125</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>15</v>
@@ -4210,7 +4231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC6A31-5D75-4E1B-9BF1-0FA76BBB3726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE313E7B-4399-4882-962F-84B7A0A02C52}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4227,7 +4248,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4334,10 +4355,10 @@
         <v>9340</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -4349,10 +4370,10 @@
         <v>10292</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -4364,13 +4385,13 @@
         <v>19632</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4406,13 @@
         <v>1952</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4400,13 +4421,13 @@
         <v>2724</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4415,13 +4436,13 @@
         <v>4677</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,10 +4525,10 @@
         <v>34172</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4519,10 +4540,10 @@
         <v>47420</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4555,13 +4576,13 @@
         <v>2095</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -4570,13 +4591,13 @@
         <v>2095</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,7 +4683,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4677,7 +4698,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -4716,7 +4737,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4731,7 +4752,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,10 +4820,10 @@
         <v>14072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4829,10 +4850,10 @@
         <v>38560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4850,13 +4871,13 @@
         <v>1585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4880,13 +4901,13 @@
         <v>1585</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,10 +4975,10 @@
         <v>3483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -4972,7 +4993,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -4984,10 +5005,10 @@
         <v>13622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -5005,13 +5026,13 @@
         <v>974</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5026,7 +5047,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -5035,13 +5056,13 @@
         <v>974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,7 +5148,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5181,7 +5202,7 @@
         <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5267,7 +5288,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5279,10 +5300,10 @@
         <v>38693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5294,10 +5315,10 @@
         <v>53454</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5321,7 +5342,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5330,13 +5351,13 @@
         <v>1006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -5345,13 +5366,13 @@
         <v>1006</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,10 +5440,10 @@
         <v>22975</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -5437,7 +5458,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5449,10 +5470,10 @@
         <v>65016</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5470,13 +5491,13 @@
         <v>2090</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5491,7 +5512,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5500,13 +5521,13 @@
         <v>2090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5595,13 @@
         <v>95612</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H28" s="7">
         <v>171</v>
@@ -5589,13 +5610,13 @@
         <v>183737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>263</v>
@@ -5604,13 +5625,13 @@
         <v>279349</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5646,13 @@
         <v>6601</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5640,13 +5661,13 @@
         <v>5826</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -5655,13 +5676,13 @@
         <v>12427</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
